--- a/IT Sales Ent.xlsx
+++ b/IT Sales Ent.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="406">
   <si>
     <t>Rank</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Work Exp</t>
   </si>
   <si>
-    <t>Educations</t>
+    <t>Education</t>
   </si>
   <si>
     <t>Experience</t>
@@ -67,7 +67,8 @@
     <t>anuptyagi18@gmail.com</t>
   </si>
   <si>
-    <t>Master of Business Administration - MBA @ MIT College of Management - India</t>
+    <t>2014 - 2016
+MIT College of Management - India - Master of Business Administration - MBA</t>
   </si>
   <si>
     <t>Exclusive Networks India Pvt Ltd@Regional Sales Manager JNR Management@Business Development Manager Audifon Hearing Systems@Area Sales Manager JNR Management@SSL Specialist</t>
@@ -99,7 +100,8 @@
     <t>tarandeep1470@gmail.com</t>
   </si>
   <si>
-    <t>Bachelor of Technology - BTech  Electronics and communcation @ Guru Teg Bahadur Khalsa Institute of Engineering And Technology</t>
+    <t>2011 - 2014
+Guru Teg Bahadur Khalsa Institute of Engineering And Technology - Bachelor of Technology - BTech, Electronics and communcation</t>
   </si>
   <si>
     <t>Tech Data@Business Development Manager Accelty Techsolutions LLP@Business Development Manager Capricot Technologies Pvt. Ltd.@Business Executive Redington Limited@Area Sales Manager Imagination Light@Sales Coordinator &amp; BDE</t>
@@ -136,7 +138,16 @@
     <t>manjeetsharmamanjeet@gmail.com</t>
   </si>
   <si>
-    <t>Master's Degree in Electrical  Electronics and Communications Engineering @ Maharshi Dayanand University</t>
+    <t>2008 - 2012
+Maharshi Dayanand University - Bachelor of Technology (B.Tech.) in Electronics and Communications Engineering
+2008 - 2012
+Somany Institute of Tech. &amp; Mgt., Rewari - Bachelor of Technology (BTech) in Electrical, Electronics and Communications Engineering
+2013 - 2015
+Maharshi Dayanand University - Master's Degree in Electrical, Electronics and Communications Engineering
+2013 - 2015
+Somany Institute of Tech. &amp; Mgt., Rewari - Master of Technology (MTech) in Electrical, Electronics and Communications Engineering
+2018 - 2020
+Guru Jambheshwar University - Master of Business Administration (MBA) in International Business</t>
   </si>
   <si>
     <t>TP-Link India@Deputy General Manager iBall India@Area Sales Manager DIGISOL Systems Ltd.@Senior Sales Executive KocharTech@System Administrator Trimax IT Infrastructure &amp; Services Ltd@Network Engineer Artek Enterprises Pvt Ltd.@Network Administrator</t>
@@ -169,7 +180,10 @@
     <t>vijendrasingh693@gmail.com</t>
   </si>
   <si>
-    <t>Bachelor of Technology - BTech  Electrical  Electronics and Communications Engineering @ SUNDERDEEP ENGINEERING COLLEGE  DASNA  GHAZIABAD.</t>
+    <t>2009 - 2013
+SUNDERDEEP ENGINEERING COLLEGE, DASNA, GHAZIABAD. - Bachelor of Technology - BTech, Electrical, Electronics and Communications Engineering
+2018 - 2021
+Suresh Gyan Vihar University - Master of Business Administration - MBA, Information Technology</t>
   </si>
   <si>
     <t>Ingram Micro India Limited.@Deputy Manager Pre-Sales Intec Infonet Pvt. Ltd.@Lead Security Specialist</t>
@@ -200,7 +214,8 @@
     <t>mayankjaiswal06@gmail.com</t>
   </si>
   <si>
-    <t>Bachelor of Engineering - BE  Electronics and Communications Engineering @ IETE</t>
+    <t>2009 - 2013
+IETE - Bachelor of Engineering - BE, Electronics and Communications Engineering</t>
   </si>
   <si>
     <t>Hexaware Technologies@Deputy Manager Team Computers@Technical Consultant - Apple Giant Tech Labs Pvt Ltd.@Presales Manager TelExcell Information Systems Ltd@Network &amp; Presales Engineer Shouut@Network Engineer</t>
@@ -233,7 +248,8 @@
     <t>rajat.mehta053@gmail.com rajat@pynetlabs.com</t>
   </si>
   <si>
-    <t>Master of Business Administration (MBA) @ Institute of Management Technology  Ghaziabad</t>
+    <t>2014 - 2016
+Institute of Management Technology, Ghaziabad - Master of Business Administration (MBA)</t>
   </si>
   <si>
     <t>PyNet Labs@Corporate Sales Manager CCS Learning Academy (Division of CCS Global Tech)@Information Technology Training Manager Koenig Solutions Pvt. Ltd.@Digital Marketing Consultant Koenig Solutions Pvt. Ltd.@IT Training Coordinator Y-Axis Overseas Careers@Visa Consultant Vishal Mega Mart (Airplaza Retail Holdings Private Limited)@Assistant Store Manager Publicis Groupe@Summer Intern Quantum Mobile@Sales Promoter Super Sanitary Fittings@Marketing Executive iEnergizer@Customer Service Executive</t>
@@ -273,7 +289,8 @@
     <t>nipun_bhatia91@yahoo.com</t>
   </si>
   <si>
-    <t>Bachelor’s Degree  Computer Science @ Punjab Technical University</t>
+    <t>2011 - 2015
+Punjab Technical University - Bachelor’s Degree, Computer Science</t>
   </si>
   <si>
     <t>Vijay Sales@Sales Manager Nike@Retail Store Manager Hush Puppies- Bata India Limited@Retail Store Manager Reebok@Retail Store Manager</t>
@@ -301,7 +318,10 @@
     <t>https://www.linkedin.com/in/rahul-kumar-a572b9118</t>
   </si>
   <si>
-    <t>Master of Business Administration - MBA @ Indira Gandhi National Open University</t>
+    <t>2011 - 2014
+Jai Prakash Vishwavidyalaya - Bachelor of Commerce (B.Com.)
+2019 - 2022
+Indira Gandhi National Open University - Master of Business Administration - MBA</t>
   </si>
   <si>
     <t>Anonet@Area Sales Manager ACT FIBERNET@Sales Team Lead Jio@Assistant Manager Shyam Spectra Pvt Ltd@Senior Sales Executive</t>
@@ -334,7 +354,10 @@
     <t>amitkjha@outlook.in themars47@gmail.com</t>
   </si>
   <si>
-    <t>Master of Business Administration (MBA)  International Business and Operations @ Amity International Business School</t>
+    <t>2007 - 2011
+Patna Institute of Technology, Patna - Bachelor of Technology (B.Tech.), Computer Science and Engineering
+2013 - 2015
+Amity International Business School - Master of Business Administration (MBA), International Business and Operations</t>
   </si>
   <si>
     <t>Microsoft Ventures@Senior Consultant Diageo@SCM RB@Intern MavenClickZ@Developer</t>
@@ -362,7 +385,8 @@
     <t>avantkashinda@gmail.com</t>
   </si>
   <si>
-    <t>Bachelor of Business Administration - BBA  General Sales  Merchandising and Related Marketing Operations @ Calcutta University  Kolkata</t>
+    <t>July 2015 -
+Calcutta University, Kolkata - Bachelor of Business Administration - BBA, General Sales, Merchandising and Related Marketing Operations</t>
   </si>
   <si>
     <t>Forbes@Sales Specialist</t>
@@ -390,7 +414,8 @@
     <t>vashisth.nk7@gmail.com</t>
   </si>
   <si>
-    <t>MBA @ Annamalai University</t>
+    <t>2009 - 2011
+Annamalai University - MBA</t>
   </si>
   <si>
     <t>Eupheus Learning@Regional Sales Manager Cambridge University Press India Pvt. Ltd.@Territory Manager - Education GOYAL BROTHERS PRAKASHAN@Area Sales Incharge</t>
@@ -415,7 +440,8 @@
     <t>shivaniyavashist1016@gmail.com</t>
   </si>
   <si>
-    <t>bachuleor s degree in Selling Skills and Sales Operations @ Savitribai Phule Pune University</t>
+    <t>April 2015 -
+Savitribai Phule Pune University - bachuleor,s degree in Selling Skills and Sales Operations</t>
   </si>
   <si>
     <t>MicroMax Computer Intelligence@Sales Manager</t>
@@ -441,7 +467,8 @@
     <t>https://www.linkedin.com/in/sushil-kumar-singh-2ba76b84</t>
   </si>
   <si>
-    <t>Graduation @ Harishchandra P.G.College  Varanasi</t>
+    <t>1995 - 1997
+Harishchandra P.G.College, Varanasi - Graduation</t>
   </si>
   <si>
     <t>HAMDARD WAKF LABORATORIES NEW DELHI@Area Sales Manager Ozone Ayurvedics - India@Area Sales Manager Win-Medicare Pvt. Ltd.@Business Development Manager</t>
@@ -488,7 +515,8 @@
     <t>farheensaifi1010@gmail.com</t>
   </si>
   <si>
-    <t>bachelor's degree  General Sales  Merchandising and Related Marketing Operations @ Panjab University  Chandigarh</t>
+    <t>July 2015 -
+Panjab University, Chandigarh - bachelor's degree, General Sales, Merchandising and Related Marketing Operations</t>
   </si>
   <si>
     <t>HP@Sales Manager</t>
@@ -515,7 +543,8 @@
     <t xml:space="preserve">khiba0151@gmail.com </t>
   </si>
   <si>
-    <t>Bachelor's degree @ Delhi University</t>
+    <t>August 2010 - June 2012
+Delhi University - Bachelor's degree</t>
   </si>
   <si>
     <t>Wipro@Salesperson</t>
@@ -537,7 +566,8 @@
     <t>https://www.linkedin.com/in/radha-krishan-ram-58ba15197</t>
   </si>
   <si>
-    <t>Bachelor of Technology - BTech @ Delhi University</t>
+    <t>2013 - 2017
+Delhi University - Bachelor of Technology - BTech</t>
   </si>
   <si>
     <t>airvine info@Sales Manager novatrix ltd@Senior Business Development Executive Secura Securit Service@Cyber Security Specialist</t>
@@ -562,7 +592,8 @@
     <t>ruchikasanghwan@gmail.com</t>
   </si>
   <si>
-    <t>Bachelor's degree  General Sales  Merchandising and Related Marketing @ Delhi University</t>
+    <t>June 2015 -
+Delhi University - Bachelor's degree, General Sales, Merchandising and Related Marketing</t>
   </si>
   <si>
     <t>company manger</t>
@@ -577,7 +608,8 @@
     <t>https://www.linkedin.com/in/saurabh-singhal-255b55104</t>
   </si>
   <si>
-    <t>Master of Computer Applications (MCA) @ Guru Jambheshwar University</t>
+    <t>2010 - 2015
+Guru Jambheshwar University - Master of Computer Applications (MCA)</t>
   </si>
   <si>
     <t>Jindal Aluminium Limited@Area Sales Manager Codec Networks Pvt Ltd@Network Security Engineer</t>
@@ -605,7 +637,12 @@
     <t>nishusaini72@gmail.com</t>
   </si>
   <si>
-    <t>Master of Business Administration - MBA  Business Administration and Management  General @ School of Business  Public Policy and Social Entrepreneurship (SBPPSE)  Ambedkar University Delhi</t>
+    <t>July 2019 - October 2020
+Bharati Vidyapeeth - Diploma, Corporate Law
+2010 - 2014
+Maharshi Dayanand University - Bachelor of Technology - BTech, Mechanical Engineering
+2017 - 2019
+School of Business, Public Policy and Social Entrepreneurship (SBPPSE), Ambedkar University Delhi - Master of Business Administration - MBA, Business Administration and Management, General</t>
   </si>
   <si>
     <t>Cybix Technical Services@Sales Manager Arrow PC Network@Business Development Executive Big Bazaar - Future Retail@Internship Delhi Metco@Marketing Executive Sperry Plast Limited@Engineer</t>
@@ -633,7 +670,8 @@
     <t>bhardwajtamanna815@gmail.com</t>
   </si>
   <si>
-    <t>Bachelor of Technology - BTech  Cultural Resource Management and Policy Analysis @ Delhi University</t>
+    <t>July 2015 -
+Delhi University - Bachelor of Technology - BTech, Cultural Resource Management and Policy Analysis</t>
   </si>
   <si>
     <t>AT&amp;T@Sales Specialist</t>
@@ -658,7 +696,8 @@
     <t>varshamehta2090@gmail.com</t>
   </si>
   <si>
-    <t>Bachelor of Technology - BTech  Computer and Information Sciences and Support Services @ Delhi University</t>
+    <t>July 2015 -
+Delhi University - Bachelor of Technology - BTech, Computer and Information Sciences and Support Services</t>
   </si>
   <si>
     <t>SENIOR PLANNER</t>
@@ -721,7 +760,8 @@
     <t>https://www.linkedin.com/in/abdulqadir374</t>
   </si>
   <si>
-    <t>Bachelor’s Degree in English Language  Sociology  Education @ Chhatrapati Shahu Ji Maharaj University</t>
+    <t>2008 - 2011
+Chhatrapati Shahu Ji Maharaj University - Bachelor’s Degree in English Language, Sociology, Education</t>
   </si>
   <si>
     <t>Ayaan Collections@Owner URTECHMATE LIMITED@Technical Sales Executive Innovazion Research Pvt. Ltd.@Technical Sales Executive XcelServ Solutions Pvt. Ltd.@Technical Sales Associate Kaamda International@System Administrator Ezee Solutions@Network Engineer Trainee High Court of Judicature at Allahabad: Bar@Typist Sikarwar Ultrasound Center@Computer Operator</t>
@@ -760,7 +800,10 @@
     <t>ashishgupta9739@gmail.com gupta.ashish374@gmail.com</t>
   </si>
   <si>
-    <t>B.E  INSTRUMENTATION TECHNOLOGY @ Visvesvaraya Technological University</t>
+    <t>2001 - 2002
+Eastern Railways boys high school - High Secondary degree
+2005 - 2009
+Visvesvaraya Technological University - B.E, INSTRUMENTATION TECHNOLOGY</t>
   </si>
   <si>
     <t>NETGEAR@Regional Sales Manager Binatone@Regional Sales Manager Smartlink Network Systems Limited@Area Sales Manager HP India Sales Pvt Ltd@Sr. Sales Executive i-fact Technologies@Business Development Manager MET TECHNOLOGIES PVT LTD@Business Associate Excutive</t>
@@ -799,7 +842,12 @@
     <t>searchmithilesh@gmail.com</t>
   </si>
   <si>
-    <t>MBA  Marketing and HRM @ Institute of Management Studies Noida</t>
+    <t>2000 - 2003
+Govt. Polytechnic Pratapgarh - Diploma, Electronics Engineering
+2003 - 2006
+Kanpur University - graduation, political science
+2006 - 2008
+Institute of Management Studies Noida - MBA, Marketing and HRM</t>
   </si>
   <si>
     <t>Ingram Micro@Regional Sales Manager Confidential@Regional Sales Manager Gajshield Infotech (I) Pvt. Ltd.@Senior Business Manager M/s. Luminous Technologies Pvt. Ltd.@Channel Manager eRoadsTechnology Pvt. Ltd@Executive-Channel Sales</t>
@@ -823,7 +871,7 @@
     <t>https://www.linkedin.com/in/arun-singh-rawat-979562229</t>
   </si>
   <si>
-    <t>MBA in Sales and Marketing @ Kumaun University</t>
+    <t>Kumaun University - MBA in Sales and Marketing</t>
   </si>
   <si>
     <t>Rexton Technologies India@Area Sales Manager AMARYLLIS APPLIANCES (INDIA) PVT. LTD.@Area Sales Manager Koochie Play Systems Pvt Ltd@Sales Officer</t>
@@ -871,7 +919,8 @@
     <t>https://www.linkedin.com/in/sumit-banerjee-93634918a</t>
   </si>
   <si>
-    <t>b com @ Mankar College</t>
+    <t>1999 -
+Mankar College - b com</t>
   </si>
   <si>
     <t>Indiabulls Housing Finance Ltd@Area Sales Manager IndusInd Bank@Area Sales Manager</t>
@@ -924,7 +973,12 @@
     <t>saleemahamed88@hotmail.com</t>
   </si>
   <si>
-    <t>Masters in Business Administration @ Graphic Era Hill University</t>
+    <t>2004 - 2006
+D.A.V Public School Kotdwar - XII
+2006 - 2010
+Govt. P.G College - Bachelor of science
+2011 - 2013
+Graphic Era Hill University - Masters in Business Administration</t>
   </si>
   <si>
     <t>Sky IT Infratech Pvt. Ltd.@Data Centre Infra Sales Head Neptune Engineering Pvt Ltd. (PURAFIL)@Senior Sales Engineer Neutech Medical Equipment Pvt Ltd@ASM Tata Commercial Motors Pvt Ltd.@Sales Executive</t>
@@ -954,7 +1008,8 @@
     <t xml:space="preserve">ankit.ankit21@gmail.com </t>
   </si>
   <si>
-    <t>Master of Business Administration - MBA @ Lovely Professional University</t>
+    <t>January 2020 - January 2022
+Lovely Professional University - Master of Business Administration - MBA</t>
   </si>
   <si>
     <t>Sennheiser@Sales Manager Business Communications India Jabra Connect@Sales Team Lead Jabra Connect@Channel Sales Executive Doon Consulting@Senior Inside Sales Representative VT technologies@Telecom Sales Specialist</t>
@@ -982,7 +1037,10 @@
     <t>https://www.linkedin.com/in/kushal-krishna-55585746</t>
   </si>
   <si>
-    <t>Bachelor of Technology (BTech) @ Punjab Technical University</t>
+    <t>2007 - 2010
+GGS Polytechnic - Diploma
+2009 - 2013
+Punjab Technical University - Bachelor of Technology (BTech)</t>
   </si>
   <si>
     <t>Intec Infonet Private Limited@Presales Solutions Architect Molex@Technical Sales Manager Intec Infonet Private Limited@Project Manager Intec Infonet Private Limited@Network Engineer</t>
@@ -1004,7 +1062,12 @@
     <t>https://www.linkedin.com/in/rahul-rana-7ba9a2b1</t>
   </si>
   <si>
-    <t>MBA  Marketing/Marketing Management  sales @ Institute of Management Technology  Ghaziabad</t>
+    <t>2010 - 2011
+SVM Saraswati Vidya Mandir - 10+2
+2011 - 2014
+Delhi University - Bachelor of Arts (BA), political Science
+2018 - 2020
+Institute of Management Technology, Ghaziabad - MBA, Marketing/Marketing Management, sales</t>
   </si>
   <si>
     <t>SMFG India Credit Company limited@Sales Manager IDFC FIRST Bank@Territory Sales Manager Capital India Finance Limited@Relationship Manager AavasFinanciersLtd@Relationship Manager Indiabulls Housing Finance Ltd@Senior Sales Officer Shivik Global Solution Pvt ltd@Sales Executive(Mortgage) Adroit Energy Systems Pvt. Ltd.@Backend Executive Jubilant FoodWorks Ltd.@Team Captain</t>
@@ -1030,7 +1093,10 @@
     <t>https://www.linkedin.com/in/vinod-pal-59b81a224</t>
   </si>
   <si>
-    <t>Bachelor of Engineering - BE  Bachuler in Electronic and Communication Engineering @ Institute Of Management and Engineerning (IME Delhi)</t>
+    <t>January 2011 - June 2014
+Institute Of Management and Engineerning (IME Delhi) - Bachelor of Engineering - BE, Bachuler in Electronic and Communication Engineering
+June 2007 - August 2010
+National Institute of Management &amp; Engineering - Diploma Programme and Electronic Engineer, Electrical and Electronics Engineering</t>
   </si>
   <si>
     <t>Optiemus Infracom Ltd@AV Pre-Sales Manager Elegant AV@Senior Technical Manager Team Computers@Audio Visual Specialist Solution Unlimited@Engineer Sony India@Service Engineer LG India@Demo &amp; Installation Engineer</t>
@@ -1081,7 +1147,8 @@
     <t>mohit_mahajan@hotmail.com mohit.mahajan0312@gmail.com</t>
   </si>
   <si>
-    <t>Bachelors @ Bharati Vidyapeeth</t>
+    <t>1994 - 1999
+Bharati Vidyapeeth - Bachelors</t>
   </si>
   <si>
     <t>ORACLE CGBU@SR. SALES CONSULTANT Aircel@A.G.M. Huawei Telecommunications Ltd.@SR. PRODUCT MANAGER Huawei Telecommunications India Pvt. Ltd.@SENIOR MANAGER Nokia Siemens Networks@SR. IP CORE PLANNER Reliance Communications@SERVICE ASSURANCE MANAGER HFCL@SR. ENGG CSG@Sales Director Oracle@Sr. Sales Manager Sonus@Principal Consultant APAC</t>
@@ -1138,7 +1205,14 @@
     <t>sindhu.raj@hotmail.com</t>
   </si>
   <si>
-    <t>Master of Computer Applications - MCA @ Indira Gandhi National Open University</t>
+    <t>April 2010 - March 2012
+Indira Gandhi National Open University - Master of Computer Applications - MCA
+2006 - 2007
+F-Tec Institute - DCAP (Diploma in Computer Application and Programming)
+2006 - 2010
+IGNOU - Bachelor of Computer Application (BCA)
+2007 - 2008
+HCL Infosystem Limited - Diploma in HCL Certified Hardware &amp; Technical Engineer</t>
   </si>
   <si>
     <t>MYK LATICRETE India Pvt. Ltd.@Area Sales Manager - Retail &amp; Distribution Finlace Consulting@Depty General Manager Albion InfoTel Limited@Channel Manager-Presales PAN INDIA Redington India Ltd@Sr Technical Support Engineer inTarvo Technologies Limited@Sr Technical Engineer</t>
@@ -1157,9 +1231,6 @@
     <t>laxmikant2591@gmail.com</t>
   </si>
   <si>
-    <t>Bachelor of Engineering (BE) in Electrical  Electronics and Communications Engineering @ Annamalai University</t>
-  </si>
-  <si>
     <t>Raritan@Technical Sales Manager Motorola Solutions@Project Engineer Jhonson Control Inc@Senior Technical Support Engineer Mahindra Defence@Associate Consultant Jaypee group@Junior consultant</t>
   </si>
   <si>
@@ -1175,6 +1246,10 @@
     <t>https://www.linkedin.com/in/anas-hussain-a99453282</t>
   </si>
   <si>
+    <t>May 2017 - May 2019
+Dyal Singh College - Bachelor of Technology - BTech</t>
+  </si>
+  <si>
     <t>PyNet Labs India@Sales Manager</t>
   </si>
   <si>
@@ -1191,9 +1266,6 @@
   </si>
   <si>
     <t>khushisharmatechno@gmail.com</t>
-  </si>
-  <si>
-    <t>Bachelor of Technology - BTech @ Dyal Singh College</t>
   </si>
   <si>
     <t>InfoCepts@Sales Manager</t>
@@ -1257,7 +1329,8 @@
     <t>ishanig645@gmail.com</t>
   </si>
   <si>
-    <t>Bachelor's degree  Sales and Marketing Operations/Marketing and Distribution @ Calcutta University  Kolkata</t>
+    <t>July 2015 -
+Calcutta University, Kolkata - Bachelor's degree, Sales and Marketing Operations/Marketing and Distribution</t>
   </si>
   <si>
     <t>Conquest Cyber@Sales Associate</t>
@@ -1282,7 +1355,8 @@
     <t>kirishajindal5593@gmail.com</t>
   </si>
   <si>
-    <t>Bachelor's degree  General Sales  Merchandising and Related Marketing Operations @ Dr. A.P.J. Abdul Kalam Technical University</t>
+    <t>July 2015 -
+Dr. A.P.J. Abdul Kalam Technical University - Bachelor's degree, General Sales, Merchandising and Related Marketing Operations</t>
   </si>
   <si>
     <t>Tata Motors@Sales Associate</t>
@@ -1304,7 +1378,8 @@
     <t>https://www.linkedin.com/in/rohit-kumar-679325139</t>
   </si>
   <si>
-    <t>BCA @ Doon University  Dehradun</t>
+    <t>2014 - 2017
+Doon University, Dehradun - BCA</t>
   </si>
   <si>
     <t>undefined</t>
@@ -3738,7 +3813,9 @@
       <c r="G40" s="1">
         <v>12.0</v>
       </c>
-      <c r="H40" s="5"/>
+      <c r="H40" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="I40" s="2" t="s">
         <v>340</v>
       </c>
@@ -3839,14 +3916,14 @@
         <v>12.0</v>
       </c>
       <c r="H42" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -3889,7 +3966,7 @@
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -3913,18 +3990,20 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="5"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="5"/>
+      <c r="H44" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="I44" s="2" t="s">
         <v>361</v>
       </c>
@@ -3972,22 +4051,22 @@
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="M45" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>46</v>
@@ -4011,28 +4090,28 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="5"/>
       <c r="G46" s="3"/>
       <c r="H46" s="5"/>
       <c r="I46" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>46</v>
@@ -4056,28 +4135,28 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="5"/>
       <c r="G47" s="3"/>
       <c r="H47" s="5"/>
       <c r="I47" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>46</v>
@@ -4101,36 +4180,36 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="D48" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G48" s="1">
         <v>6.42</v>
       </c>
       <c r="H48" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>46</v>
@@ -4154,36 +4233,36 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>393</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G49" s="1">
         <v>6.42</v>
       </c>
       <c r="H49" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>46</v>
@@ -4207,31 +4286,31 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>401</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="5"/>
       <c r="G50" s="3"/>
       <c r="H50" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="2" t="s">
